--- a/Modulo_2_Programacion_GPUs/grafica/Datos_histograma.xlsx
+++ b/Modulo_2_Programacion_GPUs/grafica/Datos_histograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Drive ULL\Ingenieria Informatica\4ºIng Informatica\Primer Cuatrimestre\Arquitecturas Avanzadas y de Propósito Específico\Practicas-AAyPE\Modulo_2_Programacion_GPUs\grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64C1023-E473-46B2-9DE8-C7627BD6650A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF95C5C-CA6D-4EB1-96C2-D720D805E100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="-4350" windowWidth="16410" windowHeight="14145" xr2:uid="{17AC3713-034C-462A-BCCF-F18C039AD314}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{17AC3713-034C-462A-BCCF-F18C039AD314}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Tiempo medio</t>
   </si>
@@ -92,22 +92,73 @@
     <t>0.006144</t>
   </si>
   <si>
-    <t>1.10344</t>
-  </si>
-  <si>
-    <t>2.62797</t>
-  </si>
-  <si>
     <t>0.22528</t>
   </si>
   <si>
-    <t>0.283473</t>
-  </si>
-  <si>
-    <t>0.521728</t>
-  </si>
-  <si>
     <t>0.012288</t>
+  </si>
+  <si>
+    <t>0.831302</t>
+  </si>
+  <si>
+    <t>2.85021</t>
+  </si>
+  <si>
+    <t>0.0724803</t>
+  </si>
+  <si>
+    <t>0.17952</t>
+  </si>
+  <si>
+    <t>0.019456</t>
+  </si>
+  <si>
+    <t>0.441344</t>
+  </si>
+  <si>
+    <t>1.12617</t>
+  </si>
+  <si>
+    <t>2.62205</t>
+  </si>
+  <si>
+    <t>0.560478</t>
+  </si>
+  <si>
+    <t>2.78837</t>
+  </si>
+  <si>
+    <t>3.32768</t>
+  </si>
+  <si>
+    <t>0.884736</t>
+  </si>
+  <si>
+    <t>1.83968</t>
+  </si>
+  <si>
+    <t>2.43302</t>
+  </si>
+  <si>
+    <t>0.031744</t>
+  </si>
+  <si>
+    <t>4.11432</t>
+  </si>
+  <si>
+    <t>4.25942</t>
+  </si>
+  <si>
+    <t>1.79405</t>
+  </si>
+  <si>
+    <t>2.33973</t>
+  </si>
+  <si>
+    <t>2.45014</t>
+  </si>
+  <si>
+    <t>0.054272</t>
   </si>
 </sst>
 </file>
@@ -171,6 +222,990 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Tiempos medios</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tamaño datos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34D7-4740-A713-920892555305}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo codigo 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34D7-4740-A713-920892555305}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo codigo 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-34D7-4740-A713-920892555305}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="151922991"/>
+        <c:axId val="151919151"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="151922991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151919151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151919151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="151922991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B58A88-8F6A-22A4-C60E-01B14BA6B921}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8987536A-B3A9-43A2-83E0-131EBD508E15}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,43 +1616,79 @@
         <v>1000000</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>1000000</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2000000</v>
       </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
       <c r="G6">
         <v>2000000</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4000000</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G7">
         <v>4000000</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>8000000</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G8">
         <v>8000000</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -663,29 +1734,48 @@
         <v>1000000</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2000000</v>
       </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>4000000</v>
       </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>8000000</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>